--- a/output7/【河洛文讀注音-閩拼調號】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《般若波羅蜜多心經》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35022BF3-BE70-4992-A78D-344E18023694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4229E26-7F09-46DD-A3F2-38BB92A789D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-24960" yWindow="0" windowWidth="25080" windowHeight="12270" activeTab="4" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1082">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2666,9 +2666,6 @@
 故說般若波羅蜜多咒，即說咒曰：揭諦，揭諦，波羅揭諦，波羅僧揭諦，菩提薩婆訶！</t>
   </si>
   <si>
-    <t>雅俗通</t>
-  </si>
-  <si>
     <t>無預設</t>
   </si>
   <si>
@@ -2708,9 +2705,6 @@
     <t>to1</t>
   </si>
   <si>
-    <t>高一地</t>
-  </si>
-  <si>
     <t>si5</t>
   </si>
   <si>
@@ -2927,9 +2921,6 @@
     <t>liap4</t>
   </si>
   <si>
-    <t>兼四柳</t>
-  </si>
-  <si>
     <t>puan5</t>
   </si>
   <si>
@@ -3036,14 +3027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3183,10 +3166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eeh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eh7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3202,14 +3181,6 @@
     <t>le7</t>
   </si>
   <si>
-    <t>le7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>le6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4112,6 +4083,32 @@
   </si>
   <si>
     <t>φ</t>
+  </si>
+  <si>
+    <t>hing5</t>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eh4</t>
+  </si>
+  <si>
+    <t>eh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liap7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4756,7 +4753,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4796,6 +4793,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4927,7 +4930,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5229,6 +5232,18 @@
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="82" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -5247,29 +5262,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8196,7 +8190,7 @@
       <c r="B11" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="104" t="s">
         <v>478</v>
       </c>
     </row>
@@ -8204,7 +8198,7 @@
       <c r="B12" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="104" t="s">
         <v>546</v>
       </c>
     </row>
@@ -8212,23 +8206,23 @@
       <c r="B13" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="114" t="s">
-        <v>1080</v>
+      <c r="C13" s="104" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30">
       <c r="B14" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="114" t="s">
-        <v>662</v>
+      <c r="C14" s="104" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30">
       <c r="B15" s="75" t="s">
         <v>658</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="104" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8236,24 +8230,24 @@
       <c r="B16" s="75" t="s">
         <v>655</v>
       </c>
-      <c r="C16" s="114" t="s">
-        <v>661</v>
+      <c r="C16" s="104" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
       <c r="B17" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="104" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="53" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C18" s="117">
-        <v>8</v>
+        <v>1073</v>
+      </c>
+      <c r="C18" s="107">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8823,25 +8817,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF147F3-E2AF-4A45-8C1C-7D0F8AE3BCA7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B1" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C1" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D1" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E1" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8849,16 +8845,16 @@
         <v>645</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E2" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8866,16 +8862,16 @@
         <v>648</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>963</v>
+        <v>745</v>
       </c>
       <c r="D3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E3" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -8894,19 +8890,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B1" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C1" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D1" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E1" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -8925,19 +8921,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B1" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C1" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D1" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E1" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8948,13 +8944,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8965,13 +8961,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E3" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8982,13 +8978,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D4" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E4" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8999,13 +8995,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E5" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9016,13 +9012,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E6" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9033,13 +9029,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>963</v>
+        <v>1075</v>
       </c>
       <c r="E7" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9050,13 +9046,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E8" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9067,13 +9063,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D9" t="s">
+        <v>955</v>
+      </c>
+      <c r="E9" t="s">
         <v>963</v>
-      </c>
-      <c r="E9" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9084,13 +9080,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D10" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E10" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9101,13 +9097,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D11" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E11" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9118,13 +9114,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E12" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9135,13 +9131,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D13" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E13" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9152,13 +9148,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E14" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9169,13 +9165,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D15" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E15" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9186,13 +9182,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E16" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9203,13 +9199,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D17" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E17" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9220,13 +9216,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D18" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E18" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9237,13 +9233,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D19" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E19" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9254,13 +9250,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D20" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E20" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9271,13 +9267,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D21" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E21" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9288,13 +9284,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D22" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E22" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9305,13 +9301,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D23" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E23" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9322,13 +9318,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D24" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E24" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9339,13 +9335,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D25" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E25" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9356,13 +9352,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D26" t="s">
-        <v>963</v>
+        <v>1077</v>
       </c>
       <c r="E26" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9373,13 +9369,13 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D27" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E27" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9390,13 +9386,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D28" t="s">
-        <v>963</v>
+        <v>687</v>
       </c>
       <c r="E28" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9407,13 +9403,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D29" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E29" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9424,13 +9420,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D30" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E30" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9441,13 +9437,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D31" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E31" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9458,13 +9454,13 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D32" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E32" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9475,13 +9471,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D33" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E33" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9492,13 +9488,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D34" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E34" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9509,13 +9505,13 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D35" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E35" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9526,13 +9522,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D36" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E36" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9543,13 +9539,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D37" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E37" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9560,13 +9556,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D38" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E38" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9577,13 +9573,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D39" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E39" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9594,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D40" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E40" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9611,13 +9607,13 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D41" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E41" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -9628,13 +9624,13 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D42" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E42" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9645,13 +9641,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D43" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E43" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9662,13 +9658,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D44" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E44" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9679,13 +9675,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D45" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E45" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9696,13 +9692,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D46" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E46" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -9713,13 +9709,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D47" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E47" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -9730,13 +9726,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D48" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E48" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -9747,13 +9743,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D49" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E49" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9764,13 +9760,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D50" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E50" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9781,13 +9777,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D51" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E51" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9798,13 +9794,13 @@
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D52" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E52" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9815,13 +9811,13 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D53" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E53" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9832,13 +9828,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D54" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E54" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9849,13 +9845,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D55" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E55" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9866,13 +9862,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D56" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E56" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9883,13 +9879,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D57" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E57" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9900,13 +9896,13 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D58" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E58" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9917,13 +9913,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D59" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E59" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -9934,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D60" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E60" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9951,13 +9947,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D61" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E61" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9968,13 +9964,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D62" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E62" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9985,13 +9981,13 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D63" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E63" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -10002,13 +9998,13 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D64" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E64" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -10019,13 +10015,13 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D65" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E65" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -10036,13 +10032,13 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D66" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E66" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -10053,13 +10049,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D67" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E67" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -10070,13 +10066,13 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D68" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E68" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -10087,13 +10083,13 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D69" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E69" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -10104,13 +10100,13 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D70" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E70" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10121,13 +10117,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D71" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E71" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -10138,13 +10134,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D72" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E72" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -10155,13 +10151,13 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D73" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E73" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -10172,13 +10168,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D74" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E74" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -10189,13 +10185,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D75" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E75" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -10206,13 +10202,13 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D76" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E76" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -10223,13 +10219,13 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D77" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E77" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -10240,13 +10236,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D78" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E78" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -10257,13 +10253,13 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D79" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E79" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -10274,13 +10270,13 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D80" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E80" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -10291,13 +10287,13 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D81" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E81" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -10308,13 +10304,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D82" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E82" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -10325,13 +10321,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D83" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E83" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -10342,13 +10338,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D84" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E84" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -10359,13 +10355,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D85" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E85" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -10376,13 +10372,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D86" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E86" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -10393,13 +10389,13 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D87" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E87" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -10410,13 +10406,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D88" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E88" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -10427,13 +10423,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D89" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E89" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -10444,13 +10440,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D90" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E90" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -10461,13 +10457,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D91" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E91" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -10478,13 +10474,13 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D92" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E92" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -10495,13 +10491,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D93" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E93" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -10512,13 +10508,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D94" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E94" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -10529,13 +10525,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D95" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E95" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -10546,13 +10542,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D96" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E96" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -10563,13 +10559,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D97" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E97" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -10580,13 +10576,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D98" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E98" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -10597,13 +10593,13 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D99" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E99" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -10614,13 +10610,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D100" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E100" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -10631,13 +10627,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D101" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E101" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -10648,13 +10644,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D102" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E102" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -10665,13 +10661,13 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D103" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E103" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -10682,13 +10678,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D104" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E104" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -10699,13 +10695,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D105" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E105" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -10716,13 +10712,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D106" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E106" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -10733,13 +10729,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D107" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E107" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -10750,13 +10746,13 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D108" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E108" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -10767,13 +10763,13 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D109" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E109" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -10784,13 +10780,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D110" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E110" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -10801,13 +10797,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="D111" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E111" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -10818,13 +10814,13 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D112" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E112" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -10835,13 +10831,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D113" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E113" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -10852,13 +10848,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D114" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E114" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -10869,13 +10865,13 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D115" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E115" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -10888,7 +10884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
@@ -10906,75 +10902,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="116">
+      <c r="A1" s="106">
         <f>COLUMN()</f>
         <v>1</v>
       </c>
-      <c r="B1" s="116">
+      <c r="B1" s="106">
         <f>COLUMN()</f>
         <v>2</v>
       </c>
-      <c r="C1" s="116">
+      <c r="C1" s="106">
         <f>COLUMN()</f>
         <v>3</v>
       </c>
-      <c r="D1" s="116">
+      <c r="D1" s="106">
         <f>COLUMN()</f>
         <v>4</v>
       </c>
-      <c r="E1" s="116">
+      <c r="E1" s="106">
         <f>COLUMN()</f>
         <v>5</v>
       </c>
-      <c r="F1" s="116">
+      <c r="F1" s="106">
         <f>COLUMN()</f>
         <v>6</v>
       </c>
-      <c r="G1" s="116">
+      <c r="G1" s="106">
         <f>COLUMN()</f>
         <v>7</v>
       </c>
-      <c r="H1" s="116">
+      <c r="H1" s="106">
         <f>COLUMN()</f>
         <v>8</v>
       </c>
-      <c r="I1" s="116">
+      <c r="I1" s="106">
         <f>COLUMN()</f>
         <v>9</v>
       </c>
-      <c r="J1" s="116">
+      <c r="J1" s="106">
         <f>COLUMN()</f>
         <v>10</v>
       </c>
-      <c r="K1" s="116">
+      <c r="K1" s="106">
         <f>COLUMN()</f>
         <v>11</v>
       </c>
-      <c r="L1" s="116">
+      <c r="L1" s="106">
         <f>COLUMN()</f>
         <v>12</v>
       </c>
-      <c r="M1" s="116">
+      <c r="M1" s="106">
         <f>COLUMN()</f>
         <v>13</v>
       </c>
-      <c r="N1" s="116">
+      <c r="N1" s="106">
         <f>COLUMN()</f>
         <v>14</v>
       </c>
-      <c r="O1" s="116">
+      <c r="O1" s="106">
         <f>COLUMN()</f>
         <v>15</v>
       </c>
-      <c r="P1" s="116">
+      <c r="P1" s="106">
         <f>COLUMN()</f>
         <v>16</v>
       </c>
-      <c r="Q1" s="116">
+      <c r="Q1" s="106">
         <f>COLUMN()</f>
         <v>17</v>
       </c>
-      <c r="R1" s="116">
+      <c r="R1" s="106">
         <f>COLUMN()</f>
         <v>18</v>
       </c>
@@ -11010,7 +11006,9 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="J3" s="81" t="s">
+        <v>1076</v>
+      </c>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
       <c r="M3" s="81"/>
@@ -11020,158 +11018,158 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="104" t="s">
+      <c r="V3" s="108" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="82" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82" t="s">
-        <v>781</v>
+        <v>1076</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="O4" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="P4" s="82" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="S4" s="91"/>
-      <c r="V4" s="105"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="97" t="s">
         <v>591</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="97" t="s">
         <v>592</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="97" t="s">
         <v>593</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="97" t="s">
         <v>550</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="114" t="s">
         <v>594</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="97" t="s">
         <v>595</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="97" t="s">
         <v>552</v>
       </c>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="O5" s="110" t="s">
+      <c r="O5" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="P5" s="110" t="s">
+      <c r="P5" s="97" t="s">
         <v>555</v>
       </c>
-      <c r="Q5" s="110" t="s">
+      <c r="Q5" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="R5" s="97" t="s">
         <v>596</v>
       </c>
       <c r="S5" s="92"/>
-      <c r="V5" s="105"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="83" t="s">
-        <v>782</v>
+        <v>1081</v>
       </c>
       <c r="K6" s="83" t="s">
+        <v>778</v>
+      </c>
+      <c r="L6" s="83" t="s">
+        <v>781</v>
+      </c>
+      <c r="M6" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="L6" s="83" t="s">
-        <v>786</v>
-      </c>
-      <c r="M6" s="83" t="s">
-        <v>788</v>
-      </c>
       <c r="N6" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="O6" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="P6" s="83" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="Q6" s="83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="R6" s="83" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="S6" s="93"/>
-      <c r="V6" s="105"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="1:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -11188,151 +11186,153 @@
       <c r="M7" s="81"/>
       <c r="N7" s="81"/>
       <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
+      <c r="P7" s="81" t="s">
+        <v>1078</v>
+      </c>
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="K8" s="82"/>
       <c r="L8" s="82" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="M8" s="82" t="s">
         <v>263</v>
       </c>
       <c r="N8" s="82" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="O8" s="82" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="P8" s="82" t="s">
-        <v>818</v>
+        <v>1078</v>
       </c>
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="97" t="s">
         <v>597</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="97" t="s">
         <v>599</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="97" t="s">
         <v>601</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="97" t="s">
         <v>604</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="114" t="s">
         <v>606</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="110" t="str">
+      <c r="R9" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83" t="s">
+        <v>807</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>808</v>
+      </c>
+      <c r="N10" s="103" t="s">
+        <v>810</v>
+      </c>
+      <c r="O10" s="83" t="s">
         <v>812</v>
       </c>
-      <c r="M10" s="83" t="s">
+      <c r="P10" s="83" t="s">
         <v>813</v>
-      </c>
-      <c r="N10" s="103" t="s">
-        <v>815</v>
-      </c>
-      <c r="O10" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="P10" s="83" t="s">
-        <v>819</v>
       </c>
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="109"/>
     </row>
     <row r="11" spans="1:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -11352,7 +11352,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -11372,14 +11372,14 @@
       <c r="Q12" s="82"/>
       <c r="R12" s="82"/>
       <c r="S12" s="91"/>
-      <c r="V12" s="105"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="110" t="str">
+      <c r="D13" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -11399,7 +11399,7 @@
       <c r="Q13" s="97"/>
       <c r="R13" s="97"/>
       <c r="S13" s="92"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -11419,13 +11419,15 @@
       <c r="Q14" s="83"/>
       <c r="R14" s="83"/>
       <c r="S14" s="94"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="1:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
       <c r="C15" s="88"/>
       <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="E15" s="81" t="s">
+        <v>905</v>
+      </c>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
@@ -11439,148 +11441,148 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="109"/>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>823</v>
+        <v>905</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="L16" s="82"/>
       <c r="M16" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="105"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="97" t="s">
         <v>607</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="114" t="s">
         <v>608</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="97" t="s">
         <v>610</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="97" t="s">
         <v>612</v>
       </c>
-      <c r="K17" s="110" t="s">
+      <c r="K17" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="L17" s="110" t="s">
+      <c r="L17" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="110" t="s">
+      <c r="M17" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="N17" s="110" t="s">
+      <c r="N17" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="O17" s="110" t="s">
+      <c r="O17" s="97" t="s">
         <v>612</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="97" t="s">
         <v>610</v>
       </c>
-      <c r="Q17" s="110" t="s">
+      <c r="Q17" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="110" t="s">
+      <c r="R17" s="97" t="s">
         <v>610</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="105"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>824</v>
+        <v>906</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G18" s="83"/>
       <c r="H18" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="105"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -11600,148 +11602,148 @@
       <c r="P19" s="81"/>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="105"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="82" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>300</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="J20" s="82" t="s">
         <v>300</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>781</v>
+        <v>1076</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="Q20" s="82"/>
       <c r="R20" s="82" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="S20" s="91"/>
-      <c r="V20" s="105"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="97" t="s">
         <v>610</v>
       </c>
-      <c r="L21" s="110" t="s">
+      <c r="L21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M21" s="111" t="s">
+      <c r="M21" s="101" t="s">
         <v>613</v>
       </c>
-      <c r="N21" s="110" t="s">
+      <c r="N21" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="O21" s="110" t="s">
+      <c r="O21" s="114" t="s">
         <v>594</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="Q21" s="110" t="s">
+      <c r="Q21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="110" t="s">
+      <c r="R21" s="97" t="s">
         <v>615</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="105"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="83" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>782</v>
+        <v>1081</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="Q22" s="83"/>
       <c r="R22" s="83" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="S22" s="94"/>
-      <c r="V22" s="106"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -11769,7 +11771,7 @@
         <v>281</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F24" s="82" t="s">
         <v>300</v>
@@ -11794,19 +11796,19 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="97" t="s">
         <v>616</v>
       </c>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="97" t="s">
         <v>617</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="110" t="s">
+      <c r="G25" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="110" t="str">
+      <c r="H25" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -11830,10 +11832,10 @@
         <v>281</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
@@ -11907,7 +11909,7 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="110" t="str">
+      <c r="D29" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -11984,42 +11986,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>823</v>
+        <v>905</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
         <v>300</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>313</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="R32" s="82"/>
       <c r="S32" s="91"/>
@@ -12034,49 +12036,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="97" t="s">
         <v>607</v>
       </c>
-      <c r="E33" s="110" t="s">
+      <c r="E33" s="114" t="s">
         <v>608</v>
       </c>
-      <c r="F33" s="110" t="s">
+      <c r="F33" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="110" t="s">
+      <c r="I33" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="J33" s="110" t="s">
+      <c r="J33" s="97" t="s">
         <v>618</v>
       </c>
-      <c r="K33" s="110" t="s">
+      <c r="K33" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="L33" s="110" t="s">
+      <c r="L33" s="97" t="s">
         <v>619</v>
       </c>
-      <c r="M33" s="110" t="s">
+      <c r="M33" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="110" t="s">
+      <c r="N33" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="O33" s="110" t="s">
+      <c r="O33" s="97" t="s">
         <v>620</v>
       </c>
-      <c r="P33" s="110" t="s">
+      <c r="P33" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="Q33" s="110" t="s">
+      <c r="Q33" s="97" t="s">
         <v>621</v>
       </c>
-      <c r="R33" s="110" t="s">
+      <c r="R33" s="97" t="s">
         <v>183</v>
       </c>
       <c r="S33" s="92"/>
@@ -12085,42 +12087,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>824</v>
+        <v>906</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
+        <v>827</v>
+      </c>
+      <c r="I34" s="83" t="s">
         <v>835</v>
       </c>
-      <c r="I34" s="83" t="s">
-        <v>843</v>
-      </c>
       <c r="J34" s="83" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="M34" s="83"/>
       <c r="N34" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="O34" s="83" t="s">
         <v>313</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="R34" s="83"/>
       <c r="S34" s="94"/>
@@ -12149,45 +12151,45 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="J36" s="82" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="82" t="s">
         <v>300</v>
       </c>
       <c r="O36" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="P36" s="82" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="S36" s="91"/>
       <c r="V36" s="60"/>
@@ -12197,49 +12199,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="E37" s="110" t="s">
+      <c r="E37" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="G37" s="110" t="s">
+      <c r="G37" s="97" t="s">
         <v>623</v>
       </c>
-      <c r="H37" s="110" t="s">
+      <c r="H37" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="110" t="s">
+      <c r="I37" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="J37" s="110" t="s">
+      <c r="J37" s="97" t="s">
         <v>624</v>
       </c>
-      <c r="K37" s="110" t="s">
+      <c r="K37" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="L37" s="110" t="s">
+      <c r="L37" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="M37" s="110" t="s">
+      <c r="M37" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="N37" s="110" t="s">
+      <c r="N37" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="O37" s="110" t="s">
+      <c r="O37" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="P37" s="110" t="s">
+      <c r="P37" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="Q37" s="110" t="s">
+      <c r="Q37" s="97" t="s">
         <v>626</v>
       </c>
-      <c r="R37" s="110" t="s">
+      <c r="R37" s="97" t="s">
         <v>185</v>
       </c>
       <c r="S37" s="92"/>
@@ -12248,45 +12250,45 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="M38" s="83"/>
       <c r="N38" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="R38" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="S38" s="94"/>
       <c r="V38" s="60"/>
@@ -12314,45 +12316,45 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="H40" s="82" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="I40" s="82" t="s">
-        <v>781</v>
+        <v>1076</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="K40" s="82"/>
       <c r="L40" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="M40" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="N40" s="82" t="s">
+        <v>857</v>
+      </c>
+      <c r="O40" s="82" t="s">
+        <v>860</v>
+      </c>
+      <c r="P40" s="82" t="s">
         <v>862</v>
       </c>
-      <c r="N40" s="82" t="s">
-        <v>865</v>
-      </c>
-      <c r="O40" s="82" t="s">
-        <v>868</v>
-      </c>
-      <c r="P40" s="82" t="s">
-        <v>870</v>
-      </c>
       <c r="Q40" s="82" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="S40" s="91"/>
       <c r="V40" s="60"/>
@@ -12362,49 +12364,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="97" t="s">
         <v>610</v>
       </c>
-      <c r="E41" s="110" t="s">
+      <c r="E41" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="110" t="s">
+      <c r="F41" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="97" t="s">
         <v>613</v>
       </c>
-      <c r="H41" s="110" t="s">
+      <c r="H41" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="I41" s="110" t="s">
+      <c r="I41" s="114" t="s">
         <v>594</v>
       </c>
-      <c r="J41" s="110" t="s">
+      <c r="J41" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="K41" s="110" t="s">
+      <c r="K41" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="L41" s="110" t="s">
+      <c r="L41" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="110" t="s">
+      <c r="M41" s="97" t="s">
         <v>627</v>
       </c>
-      <c r="N41" s="110" t="s">
+      <c r="N41" s="97" t="s">
         <v>628</v>
       </c>
-      <c r="O41" s="110" t="s">
+      <c r="O41" s="97" t="s">
         <v>629</v>
       </c>
-      <c r="P41" s="110" t="s">
+      <c r="P41" s="97" t="s">
         <v>630</v>
       </c>
-      <c r="Q41" s="110" t="s">
+      <c r="Q41" s="97" t="s">
         <v>631</v>
       </c>
-      <c r="R41" s="110" t="s">
+      <c r="R41" s="97" t="s">
         <v>632</v>
       </c>
       <c r="S41" s="92"/>
@@ -12413,45 +12415,45 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="H42" s="83" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>782</v>
+        <v>1081</v>
       </c>
       <c r="J42" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="K42" s="83"/>
       <c r="L42" s="83" t="s">
+        <v>853</v>
+      </c>
+      <c r="M42" s="83" t="s">
+        <v>855</v>
+      </c>
+      <c r="N42" s="83" t="s">
+        <v>858</v>
+      </c>
+      <c r="O42" s="83" t="s">
         <v>861</v>
       </c>
-      <c r="M42" s="83" t="s">
+      <c r="P42" s="83" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q42" s="83" t="s">
         <v>863</v>
       </c>
-      <c r="N42" s="83" t="s">
-        <v>866</v>
-      </c>
-      <c r="O42" s="83" t="s">
-        <v>869</v>
-      </c>
-      <c r="P42" s="83" t="s">
-        <v>870</v>
-      </c>
-      <c r="Q42" s="83" t="s">
-        <v>871</v>
-      </c>
       <c r="R42" s="83" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="S42" s="94"/>
       <c r="V42" s="60"/>
@@ -12480,25 +12482,25 @@
       <c r="B44" s="56"/>
       <c r="D44" s="82"/>
       <c r="E44" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="G44" s="82" t="s">
         <v>313</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="L44" s="82"/>
       <c r="M44" s="82"/>
@@ -12515,34 +12517,34 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="E45" s="110" t="s">
+      <c r="E45" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="110" t="s">
+      <c r="F45" s="97" t="s">
         <v>610</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="97" t="s">
         <v>633</v>
       </c>
-      <c r="H45" s="110" t="s">
+      <c r="H45" s="97" t="s">
         <v>634</v>
       </c>
-      <c r="I45" s="110" t="s">
+      <c r="I45" s="97" t="s">
         <v>635</v>
       </c>
-      <c r="J45" s="110" t="s">
+      <c r="J45" s="97" t="s">
         <v>636</v>
       </c>
-      <c r="K45" s="110" t="s">
+      <c r="K45" s="97" t="s">
         <v>618</v>
       </c>
-      <c r="L45" s="110" t="s">
+      <c r="L45" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="M45" s="110" t="str">
+      <c r="M45" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -12559,25 +12561,25 @@
       <c r="B46" s="58"/>
       <c r="D46" s="83"/>
       <c r="E46" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G46" s="83" t="s">
         <v>313</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="J46" s="83" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="L46" s="83"/>
       <c r="M46" s="83"/>
@@ -12634,7 +12636,7 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="110" t="str">
+      <c r="D49" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -12699,42 +12701,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="F52" s="82" t="s">
         <v>293</v>
       </c>
       <c r="G52" s="82"/>
       <c r="H52" s="82" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="I52" s="82" t="s">
         <v>326</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="M52" s="82" t="s">
         <v>293</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="P52" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="Q52" s="82" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="R52" s="82"/>
       <c r="S52" s="91"/>
@@ -12745,49 +12747,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="110" t="s">
+      <c r="E53" s="97" t="s">
         <v>627</v>
       </c>
-      <c r="F53" s="110" t="s">
+      <c r="F53" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="G53" s="110" t="s">
+      <c r="G53" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="110" t="s">
+      <c r="H53" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="I53" s="110" t="s">
+      <c r="I53" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="110" t="s">
+      <c r="J53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="K53" s="110" t="s">
+      <c r="K53" s="97" t="s">
         <v>632</v>
       </c>
-      <c r="L53" s="110" t="s">
+      <c r="L53" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="M53" s="110" t="s">
+      <c r="M53" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="N53" s="110" t="s">
+      <c r="N53" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="O53" s="110" t="s">
+      <c r="O53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="P53" s="110" t="s">
+      <c r="P53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="Q53" s="110" t="s">
+      <c r="Q53" s="97" t="s">
         <v>562</v>
       </c>
-      <c r="R53" s="110" t="s">
+      <c r="R53" s="97" t="s">
         <v>183</v>
       </c>
       <c r="S53" s="92"/>
@@ -12796,42 +12798,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="G54" s="83"/>
       <c r="H54" s="83" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="P54" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="R54" s="83"/>
       <c r="S54" s="94"/>
@@ -12860,45 +12862,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="82" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F56" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="H56" s="82" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="I56" s="82"/>
       <c r="J56" s="82" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="K56" s="82" t="s">
         <v>326</v>
       </c>
       <c r="L56" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="M56" s="82" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="N56" s="82" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="O56" s="82"/>
       <c r="P56" s="82" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="Q56" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="R56" s="82" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="S56" s="91"/>
       <c r="V56" s="60"/>
@@ -12908,49 +12910,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="110" t="s">
+      <c r="D57" s="97" t="s">
         <v>615</v>
       </c>
-      <c r="E57" s="110" t="s">
+      <c r="E57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="112" t="s">
+      <c r="G57" s="98" t="s">
         <v>562</v>
       </c>
-      <c r="H57" s="110" t="s">
+      <c r="H57" s="97" t="s">
         <v>638</v>
       </c>
-      <c r="I57" s="110" t="s">
+      <c r="I57" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="J57" s="110" t="s">
+      <c r="J57" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="K57" s="110" t="s">
+      <c r="K57" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="L57" s="110" t="s">
+      <c r="L57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="M57" s="110" t="s">
+      <c r="M57" s="97" t="s">
         <v>639</v>
       </c>
-      <c r="N57" s="110" t="s">
+      <c r="N57" s="97" t="s">
         <v>640</v>
       </c>
-      <c r="O57" s="110" t="s">
+      <c r="O57" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="P57" s="110" t="s">
+      <c r="P57" s="97" t="s">
         <v>615</v>
       </c>
-      <c r="Q57" s="110" t="s">
+      <c r="Q57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="R57" s="110" t="s">
+      <c r="R57" s="97" t="s">
         <v>639</v>
       </c>
       <c r="S57" s="92"/>
@@ -12959,45 +12961,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="83" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="I58" s="83"/>
       <c r="J58" s="83" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="K58" s="83" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="L58" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="M58" s="83" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="N58" s="83" t="s">
         <v>290</v>
       </c>
       <c r="O58" s="83"/>
       <c r="P58" s="83" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="Q58" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="R58" s="83" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="S58" s="94"/>
       <c r="V58" s="60"/>
@@ -13025,10 +13027,10 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="82" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="E60" s="82" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F60" s="82"/>
       <c r="G60" s="82"/>
@@ -13051,16 +13053,16 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="97" t="s">
         <v>640</v>
       </c>
-      <c r="E61" s="110" t="s">
+      <c r="E61" s="97" t="s">
         <v>638</v>
       </c>
-      <c r="F61" s="110" t="s">
+      <c r="F61" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="112" t="str">
+      <c r="G61" s="98" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -13085,7 +13087,7 @@
         <v>290</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F62" s="83"/>
       <c r="G62" s="83"/>
@@ -13148,7 +13150,7 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="110" t="str">
+      <c r="D65" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -13213,43 +13215,43 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="I68" s="82"/>
       <c r="J68" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="K68" s="82" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="L68" s="82"/>
       <c r="M68" s="82" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="N68" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="O68" s="82" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="P68" s="82"/>
       <c r="Q68" s="82" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="R68" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="S68" s="91"/>
       <c r="V68" s="60"/>
@@ -13259,49 +13261,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="110" t="s">
+      <c r="D69" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="110" t="s">
+      <c r="E69" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="F69" s="110" t="s">
+      <c r="F69" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="G69" s="112" t="s">
+      <c r="G69" s="98" t="s">
         <v>621</v>
       </c>
-      <c r="H69" s="110" t="s">
+      <c r="H69" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="I69" s="110" t="s">
+      <c r="I69" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="J69" s="110" t="s">
+      <c r="J69" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="K69" s="110" t="s">
+      <c r="K69" s="97" t="s">
         <v>643</v>
       </c>
-      <c r="L69" s="110" t="s">
+      <c r="L69" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="110" t="s">
+      <c r="M69" s="97" t="s">
         <v>615</v>
       </c>
-      <c r="N69" s="110" t="s">
+      <c r="N69" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="O69" s="110" t="s">
+      <c r="O69" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="P69" s="110" t="s">
+      <c r="P69" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="Q69" s="110" t="s">
+      <c r="Q69" s="97" t="s">
         <v>644</v>
       </c>
-      <c r="R69" s="110" t="s">
+      <c r="R69" s="97" t="s">
         <v>185</v>
       </c>
       <c r="S69" s="92"/>
@@ -13310,43 +13312,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F70" s="83" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="G70" s="83" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H70" s="83" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="I70" s="83"/>
       <c r="J70" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="K70" s="83" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="L70" s="83"/>
       <c r="M70" s="83" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="N70" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="O70" s="83" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="P70" s="83"/>
       <c r="Q70" s="83" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="R70" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="S70" s="94"/>
       <c r="V70" s="60"/>
@@ -13377,42 +13379,42 @@
         <v>304</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G72" s="82"/>
       <c r="H72" s="82" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I72" s="82" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J72" s="82" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K72" s="82" t="s">
-        <v>674</v>
+        <v>790</v>
       </c>
       <c r="L72" s="82"/>
       <c r="M72" s="82" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="N72" s="82" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="O72" s="82" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="P72" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="Q72" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="R72" s="82" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="S72" s="91"/>
       <c r="V72" s="60"/>
@@ -13422,49 +13424,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="110" t="s">
+      <c r="D73" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="110" t="s">
+      <c r="E73" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="F73" s="110" t="s">
+      <c r="F73" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="G73" s="110" t="s">
+      <c r="G73" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="H73" s="110" t="s">
+      <c r="H73" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="I73" s="110" t="s">
+      <c r="I73" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="J73" s="110" t="s">
+      <c r="J73" s="97" t="s">
         <v>550</v>
       </c>
-      <c r="K73" s="110" t="s">
+      <c r="K73" s="102" t="s">
         <v>645</v>
       </c>
-      <c r="L73" s="110" t="s">
+      <c r="L73" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M73" s="110" t="s">
+      <c r="M73" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="N73" s="110" t="s">
+      <c r="N73" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="O73" s="110" t="s">
+      <c r="O73" s="97" t="s">
         <v>552</v>
       </c>
-      <c r="P73" s="110" t="s">
+      <c r="P73" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="Q73" s="110" t="s">
+      <c r="Q73" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="R73" s="110" t="s">
+      <c r="R73" s="97" t="s">
         <v>555</v>
       </c>
       <c r="S73" s="92"/>
@@ -13476,42 +13478,42 @@
         <v>292</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G74" s="83"/>
       <c r="H74" s="83" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I74" s="83" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="J74" s="83" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K74" s="83" t="s">
-        <v>675</v>
+        <v>791</v>
       </c>
       <c r="L74" s="83"/>
       <c r="M74" s="83" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="N74" s="83" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="O74" s="83" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="P74" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="Q74" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="R74" s="83" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="S74" s="94"/>
       <c r="V74" s="60"/>
@@ -13539,43 +13541,43 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E76" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H76" s="82" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I76" s="82" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J76" s="82" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="K76" s="82"/>
       <c r="L76" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="M76" s="82" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="N76" s="82" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="O76" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="P76" s="82"/>
       <c r="Q76" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="R76" s="82" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="S76" s="91"/>
       <c r="V76" s="60"/>
@@ -13585,49 +13587,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="110" t="s">
+      <c r="D77" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="E77" s="110" t="s">
+      <c r="E77" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="112" t="s">
+      <c r="G77" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="H77" s="110" t="s">
+      <c r="H77" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="I77" s="110" t="s">
+      <c r="I77" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="J77" s="110" t="s">
+      <c r="J77" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="K77" s="110" t="s">
+      <c r="K77" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L77" s="110" t="s">
+      <c r="L77" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="M77" s="110" t="s">
+      <c r="M77" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="N77" s="110" t="s">
+      <c r="N77" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="O77" s="110" t="s">
+      <c r="O77" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="P77" s="110" t="s">
+      <c r="P77" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="Q77" s="110" t="s">
+      <c r="Q77" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="R77" s="110" t="s">
+      <c r="R77" s="97" t="s">
         <v>188</v>
       </c>
       <c r="S77" s="92"/>
@@ -13636,43 +13638,43 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F78" s="83"/>
       <c r="G78" s="83" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="I78" s="83" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="J78" s="83" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="K78" s="83"/>
       <c r="L78" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="M78" s="83" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="N78" s="83" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="O78" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="P78" s="83"/>
       <c r="Q78" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="R78" s="83" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="S78" s="94"/>
       <c r="V78" s="60"/>
@@ -13700,30 +13702,30 @@
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="56"/>
       <c r="D80" s="82" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F80" s="82"/>
       <c r="G80" s="82" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="H80" s="82" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="I80" s="82" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="J80" s="82" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="K80" s="82"/>
       <c r="L80" s="82" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="M80" s="82" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="N80" s="82"/>
       <c r="O80" s="82" t="s">
@@ -13733,10 +13735,10 @@
         <v>278</v>
       </c>
       <c r="Q80" s="82" t="s">
-        <v>747</v>
+        <v>1079</v>
       </c>
       <c r="R80" s="82" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="S80" s="91"/>
       <c r="V80" s="60"/>
@@ -13746,49 +13748,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="110" t="s">
+      <c r="D81" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="E81" s="110" t="s">
+      <c r="E81" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="F81" s="110" t="s">
+      <c r="F81" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="110" t="s">
+      <c r="G81" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="H81" s="110" t="s">
+      <c r="H81" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="I81" s="110" t="s">
+      <c r="I81" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="J81" s="110" t="s">
+      <c r="J81" s="97" t="s">
         <v>573</v>
       </c>
-      <c r="K81" s="110" t="s">
+      <c r="K81" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="L81" s="110" t="s">
+      <c r="L81" s="97" t="s">
         <v>574</v>
       </c>
-      <c r="M81" s="110" t="s">
+      <c r="M81" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="N81" s="110" t="s">
+      <c r="N81" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="O81" s="110" t="s">
+      <c r="O81" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="P81" s="110" t="s">
+      <c r="P81" s="97" t="s">
         <v>647</v>
       </c>
-      <c r="Q81" s="110" t="s">
+      <c r="Q81" s="102" t="s">
         <v>648</v>
       </c>
-      <c r="R81" s="110" t="s">
+      <c r="R81" s="97" t="s">
         <v>649</v>
       </c>
       <c r="S81" s="92"/>
@@ -13797,43 +13799,43 @@
     <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="58"/>
       <c r="D82" s="83" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="F82" s="83"/>
       <c r="G82" s="83" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="J82" s="83" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="K82" s="83"/>
       <c r="L82" s="83" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="M82" s="83" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="N82" s="83"/>
       <c r="O82" s="83" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="P82" s="83" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="Q82" s="83" t="s">
-        <v>748</v>
+        <v>1080</v>
       </c>
       <c r="R82" s="83" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="S82" s="94"/>
       <c r="V82" s="60"/>
@@ -13883,10 +13885,10 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="110" t="s">
+      <c r="D85" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="110" t="str">
+      <c r="E85" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -13972,7 +13974,7 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="110" t="str">
+      <c r="D89" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14037,45 +14039,45 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="82" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="E92" s="82" t="s">
         <v>314</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="G92" s="82" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="H92" s="82"/>
       <c r="I92" s="82" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="J92" s="82" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="K92" s="82" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="L92" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="M92" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="N92" s="82" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="O92" s="82" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="P92" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="Q92" s="82"/>
       <c r="R92" s="82" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="S92" s="91"/>
       <c r="V92" s="60"/>
@@ -14085,49 +14087,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="110" t="s">
+      <c r="D93" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="E93" s="110" t="s">
+      <c r="E93" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="110" t="s">
+      <c r="F93" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="G93" s="110" t="s">
+      <c r="G93" s="97" t="s">
         <v>576</v>
       </c>
-      <c r="H93" s="110" t="s">
+      <c r="H93" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="I93" s="110" t="s">
+      <c r="I93" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="J93" s="110" t="s">
+      <c r="J93" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="K93" s="110" t="s">
+      <c r="K93" s="97" t="s">
         <v>552</v>
       </c>
-      <c r="L93" s="110" t="s">
+      <c r="L93" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="M93" s="110" t="s">
+      <c r="M93" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="N93" s="110" t="s">
+      <c r="N93" s="97" t="s">
         <v>555</v>
       </c>
-      <c r="O93" s="110" t="s">
+      <c r="O93" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="P93" s="110" t="s">
+      <c r="P93" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="Q93" s="110" t="s">
+      <c r="Q93" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R93" s="110" t="s">
+      <c r="R93" s="97" t="s">
         <v>563</v>
       </c>
       <c r="S93" s="92"/>
@@ -14136,45 +14138,45 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="83" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="E94" s="83" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="F94" s="83" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="G94" s="83" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="H94" s="83"/>
       <c r="I94" s="83" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="J94" s="83" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="K94" s="83" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L94" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="M94" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="N94" s="83" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="O94" s="83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="P94" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="Q94" s="83"/>
       <c r="R94" s="83" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="S94" s="94"/>
       <c r="V94" s="60"/>
@@ -14202,31 +14204,31 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="82" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F96" s="82" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G96" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H96" s="82" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="I96" s="82" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="J96" s="82" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="K96" s="82" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="L96" s="82" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="M96" s="82"/>
       <c r="N96" s="82"/>
@@ -14242,37 +14244,37 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="110" t="s">
+      <c r="D97" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="E97" s="110" t="s">
+      <c r="E97" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="F97" s="110" t="s">
+      <c r="F97" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="G97" s="112" t="s">
+      <c r="G97" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="H97" s="110" t="s">
+      <c r="H97" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="I97" s="110" t="s">
+      <c r="I97" s="97" t="s">
         <v>579</v>
       </c>
-      <c r="J97" s="110" t="s">
+      <c r="J97" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="K97" s="110" t="s">
+      <c r="K97" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="L97" s="110" t="s">
+      <c r="L97" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="M97" s="110" t="s">
+      <c r="M97" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="N97" s="110" t="str">
+      <c r="N97" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14287,31 +14289,31 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="83" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="F98" s="83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G98" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H98" s="83" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="I98" s="83" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="J98" s="83" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="K98" s="83" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="L98" s="83" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="M98" s="83"/>
       <c r="N98" s="83"/>
@@ -14367,7 +14369,7 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="110" t="str">
+      <c r="D101" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14432,28 +14434,28 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E104" s="82" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F104" s="82" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="H104" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I104" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="J104" s="82" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="K104" s="82" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L104" s="82"/>
       <c r="M104" s="82" t="s">
@@ -14463,10 +14465,10 @@
         <v>310</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="P104" s="82" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="Q104" s="82"/>
       <c r="R104" s="82" t="s">
@@ -14480,49 +14482,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="110" t="s">
+      <c r="D105" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="E105" s="110" t="s">
+      <c r="E105" s="97" t="s">
         <v>650</v>
       </c>
-      <c r="F105" s="110" t="s">
+      <c r="F105" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="G105" s="112" t="s">
+      <c r="G105" s="98" t="s">
         <v>552</v>
       </c>
-      <c r="H105" s="110" t="s">
+      <c r="H105" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="I105" s="110" t="s">
+      <c r="I105" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="J105" s="110" t="s">
+      <c r="J105" s="97" t="s">
         <v>555</v>
       </c>
-      <c r="K105" s="110" t="s">
+      <c r="K105" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="L105" s="110" t="s">
+      <c r="L105" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M105" s="110" t="s">
+      <c r="M105" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="N105" s="110" t="s">
+      <c r="N105" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="O105" s="113" t="s">
+      <c r="O105" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="P105" s="110" t="s">
+      <c r="P105" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="Q105" s="110" t="s">
+      <c r="Q105" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R105" s="110" t="s">
+      <c r="R105" s="97" t="s">
         <v>191</v>
       </c>
       <c r="S105" s="92"/>
@@ -14531,45 +14533,45 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E106" s="83" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F106" s="83" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G106" s="83" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H106" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I106" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J106" s="83" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="K106" s="83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="N106" s="83" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="O106" s="83" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="P106" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="Q106" s="83"/>
       <c r="R106" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="S106" s="94"/>
       <c r="V106" s="60"/>
@@ -14600,39 +14602,39 @@
         <v>310</v>
       </c>
       <c r="E108" s="82" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F108" s="82" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="G108" s="82"/>
       <c r="H108" s="82" t="s">
         <v>300</v>
       </c>
       <c r="I108" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="J108" s="82" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="K108" s="82" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="L108" s="82"/>
       <c r="M108" s="82" t="s">
         <v>300</v>
       </c>
       <c r="N108" s="82" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="O108" s="82" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="P108" s="82" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="Q108" s="82" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="R108" s="82"/>
       <c r="S108" s="91"/>
@@ -14643,49 +14645,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="110" t="s">
+      <c r="D109" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="110" t="s">
+      <c r="E109" s="97" t="s">
         <v>562</v>
       </c>
-      <c r="F109" s="110" t="s">
+      <c r="F109" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="G109" s="110" t="s">
+      <c r="G109" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H109" s="110" t="s">
+      <c r="H109" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="I109" s="110" t="s">
+      <c r="I109" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="J109" s="110" t="s">
+      <c r="J109" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="110" t="s">
+      <c r="K109" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="L109" s="110" t="s">
+      <c r="L109" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M109" s="110" t="s">
+      <c r="M109" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="N109" s="110" t="s">
+      <c r="N109" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="O109" s="110" t="s">
+      <c r="O109" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="P109" s="110" t="s">
+      <c r="P109" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="Q109" s="110" t="s">
+      <c r="Q109" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="R109" s="110" t="s">
+      <c r="R109" s="97" t="s">
         <v>186</v>
       </c>
       <c r="S109" s="92"/>
@@ -14694,42 +14696,42 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="83" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="F110" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G110" s="83"/>
       <c r="H110" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="I110" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="J110" s="83" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="K110" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="L110" s="83"/>
       <c r="M110" s="83" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="N110" s="83" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="O110" s="83" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="P110" s="83" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="Q110" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="R110" s="83"/>
       <c r="S110" s="94"/>
@@ -14761,29 +14763,29 @@
         <v>283</v>
       </c>
       <c r="E112" s="82" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F112" s="82" t="s">
         <v>263</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H112" s="82" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I112" s="82"/>
       <c r="J112" s="82" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="L112" s="82" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="M112" s="82" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="N112" s="82"/>
       <c r="O112" s="82"/>
@@ -14798,40 +14800,40 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="110" t="s">
+      <c r="D113" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="110" t="s">
+      <c r="E113" s="97" t="s">
         <v>651</v>
       </c>
-      <c r="F113" s="110" t="s">
+      <c r="F113" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="G113" s="110" t="s">
+      <c r="G113" s="97" t="s">
         <v>604</v>
       </c>
-      <c r="H113" s="110" t="s">
+      <c r="H113" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="I113" s="110" t="s">
+      <c r="I113" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="J113" s="110" t="s">
+      <c r="J113" s="97" t="s">
         <v>652</v>
       </c>
-      <c r="K113" s="110" t="s">
+      <c r="K113" s="97" t="s">
         <v>653</v>
       </c>
-      <c r="L113" s="110" t="s">
+      <c r="L113" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="M113" s="110" t="s">
+      <c r="M113" s="97" t="s">
         <v>654</v>
       </c>
-      <c r="N113" s="110" t="s">
+      <c r="N113" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="O113" s="113" t="str">
+      <c r="O113" s="99" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14845,32 +14847,32 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="83" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E114" s="83" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F114" s="83" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G114" s="83" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="H114" s="83" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I114" s="83"/>
       <c r="J114" s="83" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="K114" s="83" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="L114" s="83" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="M114" s="83" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="N114" s="83"/>
       <c r="O114" s="83"/>
@@ -14925,7 +14927,7 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="110" t="str">
+      <c r="D117" s="97" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -14990,44 +14992,44 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="82" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E120" s="82" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F120" s="82" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G120" s="82" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="H120" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I120" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="J120" s="82" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="K120" s="82" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L120" s="82" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="M120" s="82"/>
       <c r="N120" s="82" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="O120" s="82" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P120" s="82" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="Q120" s="82" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R120" s="82"/>
       <c r="S120" s="91"/>
@@ -15038,49 +15040,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="110" t="s">
+      <c r="D121" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="E121" s="110" t="s">
+      <c r="E121" s="97" t="s">
         <v>584</v>
       </c>
-      <c r="F121" s="110" t="s">
+      <c r="F121" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="G121" s="112" t="s">
+      <c r="G121" s="98" t="s">
         <v>552</v>
       </c>
-      <c r="H121" s="110" t="s">
+      <c r="H121" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="I121" s="110" t="s">
+      <c r="I121" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="J121" s="110" t="s">
+      <c r="J121" s="97" t="s">
         <v>555</v>
       </c>
-      <c r="K121" s="110" t="s">
+      <c r="K121" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="L121" s="110" t="s">
+      <c r="L121" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="M121" s="110" t="s">
+      <c r="M121" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="N121" s="110" t="s">
+      <c r="N121" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="O121" s="110" t="s">
+      <c r="O121" s="97" t="s">
         <v>584</v>
       </c>
-      <c r="P121" s="110" t="s">
+      <c r="P121" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="Q121" s="110" t="s">
+      <c r="Q121" s="97" t="s">
         <v>585</v>
       </c>
-      <c r="R121" s="110" t="s">
+      <c r="R121" s="97" t="s">
         <v>580</v>
       </c>
       <c r="S121" s="92"/>
@@ -15089,44 +15091,44 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="83" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E122" s="83" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F122" s="83" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G122" s="83" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I122" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J122" s="83" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="K122" s="83" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="L122" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="M122" s="83"/>
       <c r="N122" s="83" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="O122" s="83" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="P122" s="83" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="Q122" s="83" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R122" s="83"/>
       <c r="S122" s="94"/>
@@ -15155,43 +15157,43 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="82" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="E124" s="82" t="s">
         <v>285</v>
       </c>
       <c r="F124" s="82"/>
       <c r="G124" s="82" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="H124" s="82" t="s">
         <v>285</v>
       </c>
       <c r="I124" s="82"/>
       <c r="J124" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="K124" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L124" s="82" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="M124" s="82" t="s">
         <v>285</v>
       </c>
       <c r="N124" s="82"/>
       <c r="O124" s="82" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="P124" s="82" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="Q124" s="82" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="R124" s="82" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="S124" s="91"/>
       <c r="V124" s="60"/>
@@ -15201,49 +15203,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="110" t="s">
+      <c r="D125" s="97" t="s">
         <v>586</v>
       </c>
-      <c r="E125" s="110" t="s">
+      <c r="E125" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="F125" s="110" t="s">
+      <c r="F125" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="G125" s="112" t="s">
+      <c r="G125" s="98" t="s">
         <v>586</v>
       </c>
-      <c r="H125" s="110" t="s">
+      <c r="H125" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="I125" s="110" t="s">
+      <c r="I125" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="J125" s="110" t="s">
+      <c r="J125" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="K125" s="110" t="s">
+      <c r="K125" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="L125" s="110" t="s">
+      <c r="L125" s="97" t="s">
         <v>586</v>
       </c>
-      <c r="M125" s="110" t="s">
+      <c r="M125" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="N125" s="110" t="s">
+      <c r="N125" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="O125" s="110" t="s">
+      <c r="O125" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="P125" s="110" t="s">
+      <c r="P125" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="Q125" s="110" t="s">
+      <c r="Q125" s="97" t="s">
         <v>588</v>
       </c>
-      <c r="R125" s="110" t="s">
+      <c r="R125" s="97" t="s">
         <v>586</v>
       </c>
       <c r="S125" s="92"/>
@@ -15252,43 +15254,43 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="83" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="E126" s="83" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F126" s="83"/>
       <c r="G126" s="83" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I126" s="83"/>
       <c r="J126" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="K126" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="L126" s="83" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="M126" s="83" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="N126" s="83"/>
       <c r="O126" s="83" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="P126" s="83" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="Q126" s="83" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="R126" s="83" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="S126" s="94"/>
       <c r="V126" s="60"/>
@@ -15320,19 +15322,19 @@
       </c>
       <c r="E128" s="82"/>
       <c r="F128" s="82" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="H128" s="82" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I128" s="82" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="J128" s="82" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="K128" s="82"/>
       <c r="L128" s="82"/>
@@ -15350,34 +15352,34 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="110" t="s">
+      <c r="D129" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="E129" s="110" t="s">
+      <c r="E129" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="F129" s="110" t="s">
+      <c r="F129" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="G129" s="110" t="s">
+      <c r="G129" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="110" t="s">
+      <c r="H129" s="97" t="s">
         <v>550</v>
       </c>
-      <c r="I129" s="110" t="s">
+      <c r="I129" s="97" t="s">
         <v>589</v>
       </c>
-      <c r="J129" s="110" t="s">
+      <c r="J129" s="97" t="s">
         <v>590</v>
       </c>
-      <c r="K129" s="110" t="s">
+      <c r="K129" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="L129" s="115" t="s">
-        <v>1082</v>
-      </c>
-      <c r="M129" s="110"/>
+      <c r="L129" s="105" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M129" s="97"/>
       <c r="N129" s="97"/>
       <c r="O129" s="97"/>
       <c r="P129" s="97"/>
@@ -15389,23 +15391,23 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="83" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="E130" s="83"/>
       <c r="F130" s="83" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G130" s="83" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="H130" s="83" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I130" s="83" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="J130" s="83" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="K130" s="83"/>
       <c r="L130" s="83"/>
@@ -17932,7 +17934,7 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="104" t="s">
+      <c r="V3" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -17974,7 +17976,7 @@
       <c r="Q4" s="82"/>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="105"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -18016,7 +18018,7 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="105"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -18057,7 +18059,7 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="105"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -18078,7 +18080,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -18098,7 +18100,7 @@
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -18122,7 +18124,7 @@
       <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -18142,7 +18144,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="109"/>
       <c r="AA10" s="1" t="s">
         <v>182</v>
       </c>
@@ -18167,7 +18169,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -18211,7 +18213,7 @@
         <v>324</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="105"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -18264,7 +18266,7 @@
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -18308,7 +18310,7 @@
         <v>503</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -18328,7 +18330,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="109"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -18379,7 +18381,7 @@
         <v>285</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="105"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -18432,7 +18434,7 @@
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="105"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -18480,7 +18482,7 @@
         <v>508</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="105"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -18504,7 +18506,7 @@
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="105"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -18548,7 +18550,7 @@
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="105"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -18601,7 +18603,7 @@
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="105"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -18645,7 +18647,7 @@
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="106"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -23898,7 +23900,7 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="104" t="s">
+      <c r="V3" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -23940,7 +23942,7 @@
       <c r="Q4" s="82"/>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="105"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -23982,7 +23984,7 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="105"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -24023,7 +24025,7 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="105"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -24044,7 +24046,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -24064,7 +24066,7 @@
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -24088,7 +24090,7 @@
       <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -24108,7 +24110,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="109"/>
       <c r="AA10" s="1" t="s">
         <v>182</v>
       </c>
@@ -24133,7 +24135,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -24177,7 +24179,7 @@
         <v>324</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="105"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -24230,7 +24232,7 @@
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -24274,7 +24276,7 @@
         <v>354</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -24294,7 +24296,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="109"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -24345,7 +24347,7 @@
         <v>285</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="105"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -24398,7 +24400,7 @@
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="105"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -24446,7 +24448,7 @@
         <v>360</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="105"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -24470,7 +24472,7 @@
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="105"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -24514,7 +24516,7 @@
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="105"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -24567,7 +24569,7 @@
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="105"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -24611,7 +24613,7 @@
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="106"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -29864,7 +29866,7 @@
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
-      <c r="V3" s="104" t="s">
+      <c r="V3" s="108" t="s">
         <v>205</v>
       </c>
     </row>
@@ -29906,7 +29908,7 @@
       <c r="Q4" s="82"/>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
-      <c r="V4" s="105"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -29948,7 +29950,7 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
       <c r="S5" s="92"/>
-      <c r="V5" s="105"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -29989,7 +29991,7 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
-      <c r="V6" s="105"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -30010,7 +30012,7 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -30030,7 +30032,7 @@
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
       <c r="S8" s="91"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -30054,7 +30056,7 @@
       <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -30074,7 +30076,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="94"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="109"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -30096,7 +30098,7 @@
       <c r="P11" s="81"/>
       <c r="Q11" s="81"/>
       <c r="R11" s="81"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -30140,7 +30142,7 @@
         <v>324</v>
       </c>
       <c r="S12" s="91"/>
-      <c r="V12" s="105"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -30193,7 +30195,7 @@
         <v>221</v>
       </c>
       <c r="S13" s="92"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -30237,7 +30239,7 @@
         <v>421</v>
       </c>
       <c r="S14" s="94"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -30257,7 +30259,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="81"/>
       <c r="R15" s="81"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="109"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -30308,7 +30310,7 @@
         <v>285</v>
       </c>
       <c r="S16" s="91"/>
-      <c r="V16" s="105"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -30361,7 +30363,7 @@
         <v>226</v>
       </c>
       <c r="S17" s="92"/>
-      <c r="V17" s="105"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -30409,7 +30411,7 @@
         <v>427</v>
       </c>
       <c r="S18" s="94"/>
-      <c r="V18" s="105"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -30431,7 +30433,7 @@
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
-      <c r="V19" s="105"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -30475,7 +30477,7 @@
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
-      <c r="V20" s="105"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -30528,7 +30530,7 @@
         <v>216</v>
       </c>
       <c r="S21" s="92"/>
-      <c r="V21" s="105"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -30572,7 +30574,7 @@
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
-      <c r="V22" s="106"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -35816,7 +35818,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -35834,7 +35836,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -35859,7 +35861,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="108"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -35879,7 +35881,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="108"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -35901,7 +35903,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="108"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -35917,7 +35919,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -35939,7 +35941,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="108"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -35955,7 +35957,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="108"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -35977,7 +35979,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="108"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -35993,7 +35995,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="108"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -36015,7 +36017,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="109"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -36031,7 +36033,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="109"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -36054,7 +36056,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -36072,7 +36074,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -36096,7 +36098,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="108"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -36116,7 +36118,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="108"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -36136,7 +36138,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="108"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -36150,7 +36152,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="108"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -36170,7 +36172,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="108"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -36184,7 +36186,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -36204,7 +36206,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="108"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -36218,7 +36220,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="108"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -36238,7 +36240,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="109"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -36252,7 +36254,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="109"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
